--- a/Original/CN/Game/Person.xlsx
+++ b/Original/CN/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Original/CN/Game/Person.xlsx
+++ b/Original/CN/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Original/CN/Game/Person.xlsx
+++ b/Original/CN/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Original/CN/Game/Person.xlsx
+++ b/Original/CN/Game/Person.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="162">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -107,6 +107,9 @@
     <t xml:space="preserve">ケトル</t>
   </si>
   <si>
+    <t xml:space="preserve">kettle_eye</t>
+  </si>
+  <si>
     <t xml:space="preserve">quru</t>
   </si>
   <si>
@@ -329,12 +332,57 @@
     <t xml:space="preserve">bunny2</t>
   </si>
   <si>
+    <t xml:space="preserve">sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イスシズル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISHNU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTX-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">az</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azrasizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アズラシズル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不浄なるもの</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.204</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
@@ -350,6 +398,12 @@
     <t xml:space="preserve">EA 23.117</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.246</t>
+  </si>
+  <si>
     <t xml:space="preserve">诺伦</t>
   </si>
   <si>
@@ -425,6 +479,15 @@
     <t xml:space="preserve">兔女郎</t>
   </si>
   <si>
+    <t xml:space="preserve">索林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊斯西泽尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安茨拉西祖鲁</t>
+  </si>
+  <si>
     <t xml:space="preserve">向导</t>
   </si>
   <si>
@@ -435,6 +498,9 @@
   </si>
   <si>
     <t xml:space="preserve">米西利亚公爵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">污秽不净之人</t>
   </si>
 </sst>
 </file>
@@ -561,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -579,10 +645,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -593,7 +659,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -607,14 +673,14 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -628,10 +694,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -642,7 +708,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -656,10 +722,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -677,16 +743,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -695,19 +761,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -716,19 +782,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -737,19 +803,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -758,19 +824,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -779,19 +845,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -800,19 +866,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -824,16 +890,16 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -845,16 +911,16 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -863,19 +929,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -887,16 +953,16 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -905,19 +971,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -926,19 +992,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -947,19 +1013,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -968,62 +1034,69 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" t="s">
-        <v>70</v>
-      </c>
+      <c r="J22"/>
+      <c r="K22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23"/>
-      <c r="K23"/>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="J24"/>
@@ -1034,17 +1107,10 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="J25"/>
@@ -1052,19 +1118,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1073,19 +1139,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1094,19 +1160,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
         <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -1115,19 +1181,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -1139,16 +1205,16 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1157,19 +1223,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
         <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -1178,19 +1244,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -1199,19 +1265,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
         <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -1220,19 +1286,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
         <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -1241,24 +1307,143 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
-        <v>102</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="J35"/>
       <c r="K35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>

--- a/Original/CN/Game/Person.xlsx
+++ b/Original/CN/Game/Person.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="140">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -107,9 +107,6 @@
     <t xml:space="preserve">ケトル</t>
   </si>
   <si>
-    <t xml:space="preserve">kettle_eye</t>
-  </si>
-  <si>
     <t xml:space="preserve">quru</t>
   </si>
   <si>
@@ -332,57 +329,12 @@
     <t xml:space="preserve">bunny2</t>
   </si>
   <si>
-    <t xml:space="preserve">sorin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ソリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">issizzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issizzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イスシズル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vishnu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISHNU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTX-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">az</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azrasizzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アズラシズル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inpure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不浄なるもの</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.204</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
@@ -398,12 +350,6 @@
     <t xml:space="preserve">EA 23.117</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.246</t>
-  </si>
-  <si>
     <t xml:space="preserve">诺伦</t>
   </si>
   <si>
@@ -479,15 +425,6 @@
     <t xml:space="preserve">兔女郎</t>
   </si>
   <si>
-    <t xml:space="preserve">索林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伊斯西泽尔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安茨拉西祖鲁</t>
-  </si>
-  <si>
     <t xml:space="preserve">向导</t>
   </si>
   <si>
@@ -498,9 +435,6 @@
   </si>
   <si>
     <t xml:space="preserve">米西利亚公爵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">污秽不净之人</t>
   </si>
 </sst>
 </file>
@@ -627,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -645,10 +579,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -659,7 +593,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -673,14 +607,14 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -694,10 +628,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -708,7 +642,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -722,10 +656,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -743,16 +677,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -761,19 +695,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -782,19 +716,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -803,19 +737,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -824,19 +758,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -845,19 +779,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -866,19 +800,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -890,16 +824,16 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
       <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -911,16 +845,16 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -929,19 +863,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -953,16 +887,16 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -971,19 +905,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -992,19 +926,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -1013,19 +947,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -1034,69 +968,62 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="I22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" t="s">
-        <v>71</v>
-      </c>
+      <c r="J23"/>
+      <c r="K23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="J24"/>
@@ -1107,10 +1034,17 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25"/>
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="J25"/>
@@ -1118,19 +1052,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1139,19 +1073,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1160,19 +1094,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -1181,19 +1115,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -1205,16 +1139,16 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1223,19 +1157,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -1244,19 +1178,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -1265,19 +1199,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -1286,19 +1220,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -1307,143 +1241,24 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>102</v>
-      </c>
-      <c r="E35" t="s">
-        <v>103</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="J35"/>
       <c r="K35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J39" t="s">
-        <v>113</v>
-      </c>
-      <c r="K39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40" t="s">
-        <v>161</v>
-      </c>
-      <c r="J40" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>
